--- a/benchmark/benchmark_result_20160713.xlsx
+++ b/benchmark/benchmark_result_20160713.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
   <si>
     <t>Read config file:</t>
   </si>
@@ -173,16 +173,13 @@
     <t>ns</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
+    <t>Inter Core i5-5300U @ 2.3GHz</t>
+  </si>
+  <si>
+    <t>8 GB RAM</t>
+  </si>
+  <si>
+    <t>64-bit Windows 7</t>
   </si>
 </sst>
 </file>
@@ -249,13 +246,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -541,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,7 +1195,22 @@
         <v>654285422</v>
       </c>
     </row>
-    <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C42:C48">
     <cfRule type="dataBar" priority="4">

--- a/benchmark/benchmark_result_20160713.xlsx
+++ b/benchmark/benchmark_result_20160713.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
   <si>
     <t>Read config file:</t>
   </si>
@@ -180,6 +180,18 @@
   </si>
   <si>
     <t>64-bit Windows 7</t>
+  </si>
+  <si>
+    <t>2^11</t>
+  </si>
+  <si>
+    <t>2^17</t>
+  </si>
+  <si>
+    <t>2^28</t>
+  </si>
+  <si>
+    <t>2^30</t>
   </si>
 </sst>
 </file>
@@ -541,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +563,7 @@
     <col min="2" max="5" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -565,7 +577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -578,8 +590,11 @@
       <c r="D2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -592,8 +607,11 @@
       <c r="D3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -606,8 +624,11 @@
       <c r="D4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -620,14 +641,17 @@
       <c r="D5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -641,7 +665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -655,7 +679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -669,7 +693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -683,13 +707,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -703,7 +727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -717,7 +741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>

--- a/benchmark/benchmark_result_20160713.xlsx
+++ b/benchmark/benchmark_result_20160713.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
   <si>
     <t>Read config file:</t>
   </si>
@@ -192,6 +192,15 @@
   </si>
   <si>
     <t>2^30</t>
+  </si>
+  <si>
+    <t>cache:  3 MB</t>
+  </si>
+  <si>
+    <t>cores: 2</t>
+  </si>
+  <si>
+    <t>threads: 4</t>
   </si>
 </sst>
 </file>
@@ -230,7 +239,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -253,12 +262,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -266,6 +284,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -551,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1233,6 +1252,21 @@
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/benchmark/benchmark_result_20160713.xlsx
+++ b/benchmark/benchmark_result_20160713.xlsx
@@ -188,9 +188,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
+    <numFmt numFmtId="166" formatCode="0.00%"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -290,7 +291,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -307,6 +308,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -319,7 +324,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Check Cell" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -389,17 +394,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A64" activeCellId="0" sqref="A64"/>
+      <selection pane="topLeft" activeCell="H56" activeCellId="0" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="14.7142857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.62244897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1036,6 +1043,22 @@
         <f aca="false">C17</f>
         <v>1240124000</v>
       </c>
+      <c r="G43" s="4" t="n">
+        <f aca="false">B$42/B43</f>
+        <v>0.981578105104158</v>
+      </c>
+      <c r="H43" s="4" t="n">
+        <f aca="false">C$42/C43</f>
+        <v>0.727136649794286</v>
+      </c>
+      <c r="I43" s="4" t="n">
+        <f aca="false">D$42/D43</f>
+        <v>2.84641873278237</v>
+      </c>
+      <c r="J43" s="4" t="n">
+        <f aca="false">E$42/E43</f>
+        <v>3.31370967741935</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
@@ -1057,6 +1080,22 @@
         <f aca="false">C35</f>
         <v>767676760</v>
       </c>
+      <c r="G44" s="4" t="n">
+        <f aca="false">B$42/B44</f>
+        <v>0.922619176445635</v>
+      </c>
+      <c r="H44" s="4" t="n">
+        <f aca="false">C$42/C44</f>
+        <v>0.825532266148817</v>
+      </c>
+      <c r="I44" s="4" t="n">
+        <f aca="false">D$42/D44</f>
+        <v>4.63340807174888</v>
+      </c>
+      <c r="J44" s="4" t="n">
+        <f aca="false">E$42/E44</f>
+        <v>5.35304846274101</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
@@ -1078,6 +1117,22 @@
         <f aca="false">C36</f>
         <v>693869380</v>
       </c>
+      <c r="G45" s="4" t="n">
+        <f aca="false">B$42/B45</f>
+        <v>0.782109862408255</v>
+      </c>
+      <c r="H45" s="4" t="n">
+        <f aca="false">C$42/C45</f>
+        <v>0.735406112054072</v>
+      </c>
+      <c r="I45" s="4" t="n">
+        <f aca="false">D$42/D45</f>
+        <v>5.64617486338798</v>
+      </c>
+      <c r="J45" s="4" t="n">
+        <f aca="false">E$42/E45</f>
+        <v>5.92245603920438</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
@@ -1099,6 +1154,22 @@
         <f aca="false">C37</f>
         <v>666466640</v>
       </c>
+      <c r="G46" s="4" t="n">
+        <f aca="false">B$42/B46</f>
+        <v>0.631013925329445</v>
+      </c>
+      <c r="H46" s="4" t="n">
+        <f aca="false">C$42/C46</f>
+        <v>0.654521005999401</v>
+      </c>
+      <c r="I46" s="4" t="n">
+        <f aca="false">D$42/D46</f>
+        <v>5.48143236074271</v>
+      </c>
+      <c r="J46" s="4" t="n">
+        <f aca="false">E$42/E46</f>
+        <v>6.16596638655462</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
@@ -1120,6 +1191,22 @@
         <f aca="false">C38</f>
         <v>663266320</v>
       </c>
+      <c r="G47" s="4" t="n">
+        <f aca="false">B$42/B47</f>
+        <v>0.465592461266842</v>
+      </c>
+      <c r="H47" s="4" t="n">
+        <f aca="false">C$42/C47</f>
+        <v>0.50918648533742</v>
+      </c>
+      <c r="I47" s="4" t="n">
+        <f aca="false">D$42/D47</f>
+        <v>5.56258411843876</v>
+      </c>
+      <c r="J47" s="4" t="n">
+        <f aca="false">E$42/E47</f>
+        <v>6.19571773220748</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
@@ -1141,20 +1228,36 @@
         <f aca="false">C39</f>
         <v>671467140</v>
       </c>
+      <c r="G48" s="4" t="n">
+        <f aca="false">B$42/B48</f>
+        <v>0.305118064445247</v>
+      </c>
+      <c r="H48" s="4" t="n">
+        <f aca="false">C$42/C48</f>
+        <v>0.346676296395034</v>
+      </c>
+      <c r="I48" s="4" t="n">
+        <f aca="false">D$42/D48</f>
+        <v>5.46331791143424</v>
+      </c>
+      <c r="J48" s="4" t="n">
+        <f aca="false">E$42/E48</f>
+        <v>6.12004766160262</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1192,6 +1295,7 @@
         <f aca="false">E11</f>
         <v>2767971500</v>
       </c>
+      <c r="G55" s="4"/>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
@@ -1213,6 +1317,22 @@
         <f aca="false">E17</f>
         <v>893537220</v>
       </c>
+      <c r="G56" s="4" t="n">
+        <f aca="false">B$55/B56</f>
+        <v>1.05187855394014</v>
+      </c>
+      <c r="H56" s="4" t="n">
+        <f aca="false">C$55/C56</f>
+        <v>0.474495154278725</v>
+      </c>
+      <c r="I56" s="4" t="n">
+        <f aca="false">D$55/D56</f>
+        <v>1.5368099358722</v>
+      </c>
+      <c r="J56" s="4" t="n">
+        <f aca="false">E$55/E56</f>
+        <v>3.09776855182373</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
@@ -1234,6 +1354,22 @@
         <f aca="false">E35</f>
         <v>459126960</v>
       </c>
+      <c r="G57" s="4" t="n">
+        <f aca="false">B$55/B57</f>
+        <v>0.870535743751196</v>
+      </c>
+      <c r="H57" s="4" t="n">
+        <f aca="false">C$55/C57</f>
+        <v>0.789666399943951</v>
+      </c>
+      <c r="I57" s="4" t="n">
+        <f aca="false">D$55/D57</f>
+        <v>3.08844614265262</v>
+      </c>
+      <c r="J57" s="4" t="n">
+        <f aca="false">E$55/E57</f>
+        <v>6.02877143176258</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
@@ -1255,6 +1391,22 @@
         <f aca="false">E36</f>
         <v>273394600</v>
       </c>
+      <c r="G58" s="4" t="n">
+        <f aca="false">B$55/B58</f>
+        <v>0.646713574738287</v>
+      </c>
+      <c r="H58" s="4" t="n">
+        <f aca="false">C$55/C58</f>
+        <v>0.753504475595339</v>
+      </c>
+      <c r="I58" s="4" t="n">
+        <f aca="false">D$55/D58</f>
+        <v>5.03493223348479</v>
+      </c>
+      <c r="J58" s="4" t="n">
+        <f aca="false">E$55/E58</f>
+        <v>10.1244556403089</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
@@ -1276,6 +1428,22 @@
         <f aca="false">E37</f>
         <v>246975900</v>
       </c>
+      <c r="G59" s="4" t="n">
+        <f aca="false">B$55/B59</f>
+        <v>0.424350254493041</v>
+      </c>
+      <c r="H59" s="4" t="n">
+        <f aca="false">C$55/C59</f>
+        <v>0.59543563849901</v>
+      </c>
+      <c r="I59" s="4" t="n">
+        <f aca="false">D$55/D59</f>
+        <v>6.33365149275873</v>
+      </c>
+      <c r="J59" s="4" t="n">
+        <f aca="false">E$55/E59</f>
+        <v>11.2074558691759</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
@@ -1297,6 +1465,22 @@
         <f aca="false">E38</f>
         <v>248977380</v>
       </c>
+      <c r="G60" s="4" t="n">
+        <f aca="false">B$55/B60</f>
+        <v>0.259488789731725</v>
+      </c>
+      <c r="H60" s="4" t="n">
+        <f aca="false">C$55/C60</f>
+        <v>0.381317317502684</v>
+      </c>
+      <c r="I60" s="4" t="n">
+        <f aca="false">D$55/D60</f>
+        <v>6.30326674256271</v>
+      </c>
+      <c r="J60" s="4" t="n">
+        <f aca="false">E$55/E60</f>
+        <v>11.1173613442314</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
@@ -1318,20 +1502,36 @@
         <f aca="false">E39</f>
         <v>244374400</v>
       </c>
+      <c r="G61" s="4" t="n">
+        <f aca="false">B$55/B61</f>
+        <v>0.143105608931759</v>
+      </c>
+      <c r="H61" s="4" t="n">
+        <f aca="false">C$55/C61</f>
+        <v>0.218255420154321</v>
+      </c>
+      <c r="I61" s="4" t="n">
+        <f aca="false">D$55/D61</f>
+        <v>6.27316015849254</v>
+      </c>
+      <c r="J61" s="4" t="n">
+        <f aca="false">E$55/E61</f>
+        <v>11.326765405869</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1345,7 +1545,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{592959B3-1EB0-4D5F-A093-20CFB5A65618}</x14:id>
+          <x14:id>{5FAED8CF-CFA5-40E2-8DF0-1F57E7F77197}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1359,7 +1559,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7492F098-23B2-4896-B84E-94DF8F84CCEB}</x14:id>
+          <x14:id>{F045E014-2FA8-4EB0-B313-54FB8F70142D}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1373,7 +1573,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8E82A010-CCEA-4440-A0BE-20AB52135A4E}</x14:id>
+          <x14:id>{15DD85FF-5F4F-4815-839D-AAAF5A733643}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1387,7 +1587,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6C6346B8-8796-4470-8B14-7A70527C4A44}</x14:id>
+          <x14:id>{956F2661-4DDF-4CD3-B3B7-D69D87242ED5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1401,7 +1601,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{19A44835-281D-473B-B29E-316A35EB88A3}</x14:id>
+          <x14:id>{868688CE-41BE-4960-BC12-E8B997F77800}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1415,7 +1615,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9BA995BD-5022-4934-AF84-53FB53CB1D3C}</x14:id>
+          <x14:id>{9A91CB76-45A3-4950-8BEF-50A04FB0AF1E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1429,7 +1629,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{271081BA-F750-4357-9D4B-BC77F63ED03F}</x14:id>
+          <x14:id>{22BF1484-44A1-4BFB-8D30-1C81708653F7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1443,7 +1643,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{10A12775-E020-4B88-86C2-DAE628C0EB25}</x14:id>
+          <x14:id>{E022687E-91D5-4B71-AC46-CF30116A8D36}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1459,7 +1659,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{592959B3-1EB0-4D5F-A093-20CFB5A65618}">
+          <x14:cfRule type="dataBar" id="{5FAED8CF-CFA5-40E2-8DF0-1F57E7F77197}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1470,7 +1670,7 @@
           <xm:sqref>C42:C48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7492F098-23B2-4896-B84E-94DF8F84CCEB}">
+          <x14:cfRule type="dataBar" id="{F045E014-2FA8-4EB0-B313-54FB8F70142D}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1481,7 +1681,7 @@
           <xm:sqref>B42:B48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8E82A010-CCEA-4440-A0BE-20AB52135A4E}">
+          <x14:cfRule type="dataBar" id="{15DD85FF-5F4F-4815-839D-AAAF5A733643}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1492,7 +1692,7 @@
           <xm:sqref>D42:D48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6C6346B8-8796-4470-8B14-7A70527C4A44}">
+          <x14:cfRule type="dataBar" id="{956F2661-4DDF-4CD3-B3B7-D69D87242ED5}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1503,7 +1703,7 @@
           <xm:sqref>E42:E48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{19A44835-281D-473B-B29E-316A35EB88A3}">
+          <x14:cfRule type="dataBar" id="{868688CE-41BE-4960-BC12-E8B997F77800}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1514,7 +1714,7 @@
           <xm:sqref>C55:C61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9BA995BD-5022-4934-AF84-53FB53CB1D3C}">
+          <x14:cfRule type="dataBar" id="{9A91CB76-45A3-4950-8BEF-50A04FB0AF1E}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1525,7 +1725,7 @@
           <xm:sqref>B55:B61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{271081BA-F750-4357-9D4B-BC77F63ED03F}">
+          <x14:cfRule type="dataBar" id="{22BF1484-44A1-4BFB-8D30-1C81708653F7}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1536,7 +1736,7 @@
           <xm:sqref>D55:D61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{10A12775-E020-4B88-86C2-DAE628C0EB25}">
+          <x14:cfRule type="dataBar" id="{E022687E-91D5-4B71-AC46-CF30116A8D36}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
